--- a/data/meta/gem5_statistics_result_template.xlsx
+++ b/data/meta/gem5_statistics_result_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowWidth="30080" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="host-IPC&amp;CPI" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>gem5 ckp ipc</t>
   </si>
   <si>
-    <t>gem5 ckp与完整跑</t>
+    <t>gem5 ckp与完整跑误差</t>
   </si>
   <si>
     <t>ckp与M1 ckp误差</t>
@@ -58,10 +58,10 @@
     <t>gem5运行时间</t>
   </si>
   <si>
-    <t>GEM5 CPI</t>
-  </si>
-  <si>
-    <t>M1 CPI</t>
+    <t>gem5 ckp CPI</t>
+  </si>
+  <si>
+    <t>M1 ckp CPI</t>
   </si>
   <si>
     <t>有效ckp占比</t>
@@ -163,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -212,7 +212,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -226,6 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -234,23 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -260,35 +253,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,7 +268,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,15 +284,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +306,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,169 +374,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,31 +756,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,21 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -840,147 +816,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,8 +1439,8 @@
   <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18269230769231" defaultRowHeight="16.8"/>
@@ -1453,13 +1453,13 @@
     <col min="6" max="6" width="19.2692307692308" customWidth="1"/>
     <col min="7" max="7" width="15.3653846153846" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.0865384615385" customWidth="1"/>
-    <col min="9" max="9" width="19.7307692307692" customWidth="1"/>
+    <col min="9" max="9" width="24.3076923076923" customWidth="1"/>
     <col min="10" max="10" width="16.5384615384615" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.6346153846154" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.3653846153846" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.2692307692308" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.8461538461538" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.18269230769231" style="2"/>
+    <col min="14" max="14" width="17.2307692307692" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.6923076923077" style="2" customWidth="1"/>
     <col min="16" max="16" width="20.0865384615385" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9.18269230769231" style="2"/>
   </cols>
@@ -2823,7 +2823,7 @@
         <v>56.036</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" ht="17.55" spans="1:16">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>

--- a/data/meta/gem5_statistics_result_template.xlsx
+++ b/data/meta/gem5_statistics_result_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30080" windowHeight="14780"/>
+    <workbookView windowWidth="30260" windowHeight="16840"/>
   </bookViews>
   <sheets>
     <sheet name="host-IPC&amp;CPI" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>host完整跑ipc</t>
   </si>
@@ -58,12 +58,21 @@
     <t>gem5运行时间</t>
   </si>
   <si>
-    <t>gem5 ckp CPI</t>
+    <t>gem5 total ckp CPI</t>
+  </si>
+  <si>
+    <t>gem5 sum ckp CPI</t>
   </si>
   <si>
     <t>M1 ckp CPI</t>
   </si>
   <si>
+    <t>gem5完整跑CPI</t>
+  </si>
+  <si>
+    <t>host完整跑CPI</t>
+  </si>
+  <si>
     <t>有效ckp占比</t>
   </si>
   <si>
@@ -155,6 +164,48 @@
   </si>
   <si>
     <t>fp算术平均</t>
+  </si>
+  <si>
+    <t>Geomean(1+abs(x-y)/y)-1</t>
+  </si>
+  <si>
+    <t>总几何平均</t>
+  </si>
+  <si>
+    <t>Average(abs(x-y))/Average(y)</t>
+  </si>
+  <si>
+    <t>总NMAE</t>
+  </si>
+  <si>
+    <t>Int NMAE</t>
+  </si>
+  <si>
+    <t>Fp NMAE</t>
+  </si>
+  <si>
+    <t>（Average((x-y)^2)/Average(y^2)）^0.5</t>
+  </si>
+  <si>
+    <t>总NRMSE</t>
+  </si>
+  <si>
+    <t>Int NRMSE</t>
+  </si>
+  <si>
+    <t>Fp NRMSE</t>
+  </si>
+  <si>
+    <t>Average(abs(x-y)/y)</t>
+  </si>
+  <si>
+    <t>总MAPE</t>
+  </si>
+  <si>
+    <t>Int MPAE</t>
+  </si>
+  <si>
+    <t>Fp MAPE</t>
   </si>
 </sst>
 </file>
@@ -163,8 +214,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -212,10 +263,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,6 +280,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,9 +308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,39 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,20 +355,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,7 +419,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,43 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,43 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,19 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,44 +597,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -626,12 +683,46 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -671,7 +762,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -683,16 +774,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -748,6 +855,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,17 +907,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,192 +947,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,67 +1128,122 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,6 +1253,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1335,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="summary"/>
+      <sheetName val="summaryCPI"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1437,34 +1602,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18269230769231" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="22.9038461538462" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.4519230769231" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.3653846153846" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.2692307692308" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.0865384615385" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5384615384615" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6153846153846" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1538461538462" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.2692307692308" customWidth="1"/>
     <col min="7" max="7" width="15.3653846153846" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.0865384615385" customWidth="1"/>
     <col min="9" max="9" width="24.3076923076923" customWidth="1"/>
-    <col min="10" max="10" width="16.5384615384615" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.6346153846154" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6923076923077" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5384615384615" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.3653846153846" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.2692307692308" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.2307692307692" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.6923076923077" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.8461538461538" style="2" customWidth="1"/>
     <col min="16" max="16" width="20.0865384615385" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.18269230769231" style="2"/>
+    <col min="17" max="17" width="16.7692307692308" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.8461538461538" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.7692307692308" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.18269230769231" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1511,10 +1681,19 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>1.22</v>
@@ -1523,7 +1702,7 @@
       <c r="D2" s="5">
         <v>1.705499</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="23">
         <f>IFERROR((D2-B2)/B2,0)</f>
         <v>0.39795</v>
       </c>
@@ -1531,47 +1710,59 @@
         <f>IFERROR((D2-C2)/C2,1)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="5" t="e">
         <f>1/O2</f>
-        <v>2.191896121659</v>
-      </c>
-      <c r="H2" s="16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="24" t="e">
         <f>1/N2</f>
         <v>#REF!</v>
       </c>
-      <c r="I2" s="16" t="e">
+      <c r="I2" s="24" t="e">
         <f>(H2-D2)/D2</f>
         <v>#REF!</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="36">
         <f t="shared" ref="J2:J25" si="0">IFERROR((H2-G2)/G2,1)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="36">
         <f t="shared" ref="K2:K25" si="1">IFERROR((H2-B2)/B2,1)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="36">
         <f t="shared" ref="L2:L25" si="2">IFERROR((H2-C2)/C2,1)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="50">
         <v>0.345219907407407</v>
       </c>
       <c r="N2" s="2" t="e">
-        <f>[1]summary!F2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O2" s="2">
+        <f>[1]summaryCPI!E2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" s="2" t="e">
+        <f>[1]summaryCPI!D2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" s="2">
         <v>0.456226</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
+        <f t="shared" ref="Q2:Q9" si="3">1/D2</f>
+        <v>0.586338661001853</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" ref="R2:R25" si="4">1/B2</f>
+        <v>0.819672131147541</v>
+      </c>
+      <c r="S2" s="2">
         <v>76.051</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>0.99</v>
@@ -1582,55 +1773,67 @@
       <c r="D3" s="5">
         <v>0.995271</v>
       </c>
-      <c r="E3" s="15">
-        <f t="shared" ref="E3:E25" si="3">IFERROR((D3-B3)/B3,0)</f>
+      <c r="E3" s="23">
+        <f t="shared" ref="E3:E25" si="5">IFERROR((D3-B3)/B3,0)</f>
         <v>0.00532424242424245</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F25" si="4">IFERROR((D3-C3)/C3,1)</f>
+        <f t="shared" ref="F3:F25" si="6">IFERROR((D3-C3)/C3,1)</f>
         <v>-0.0727173629486081</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G25" si="5">1/O3</f>
-        <v>1.19615794069449</v>
-      </c>
-      <c r="H3" s="16" t="e">
-        <f t="shared" ref="H3:H25" si="6">1/N3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I3" s="16" t="e">
-        <f t="shared" ref="I3:I25" si="7">(H3-D3)/D3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="G3" s="5" t="e">
+        <f t="shared" ref="G3:G25" si="7">1/O3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="24" t="e">
+        <f t="shared" ref="H3:H25" si="8">1/N3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I3" s="24" t="e">
+        <f t="shared" ref="I3:I25" si="9">(H3-D3)/D3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J3" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="51">
         <v>0.15625</v>
       </c>
       <c r="N3" s="2" t="e">
-        <f>[1]summary!F3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O3" s="2">
+        <f>[1]summaryCPI!E3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O3" s="2" t="e">
+        <f>[1]summaryCPI!D3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P3" s="2">
         <v>0.83601</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
+        <f t="shared" si="3"/>
+        <v>1.00475146970021</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="4"/>
+        <v>1.01010101010101</v>
+      </c>
+      <c r="S3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>0.63</v>
@@ -1639,55 +1842,67 @@
       <c r="D4" s="5">
         <v>0.847509</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="23">
+        <f t="shared" si="5"/>
+        <v>0.345252380952381</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="52">
+        <v>4.57329861111111</v>
+      </c>
+      <c r="N4" s="2" t="e">
+        <f>[1]summaryCPI!E4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O4" s="2" t="e">
+        <f>[1]summaryCPI!D4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.86706</v>
+      </c>
+      <c r="Q4" s="2">
         <f t="shared" si="3"/>
-        <v>0.345252380952381</v>
-      </c>
-      <c r="F4" s="5">
+        <v>1.17992847273598</v>
+      </c>
+      <c r="R4" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="5"/>
-        <v>1.15332272276428</v>
-      </c>
-      <c r="H4" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="33">
-        <v>4.57329861111111</v>
-      </c>
-      <c r="N4" s="2" t="e">
-        <f>[1]summary!F4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.86706</v>
-      </c>
-      <c r="P4" s="2">
+        <v>1.58730158730159</v>
+      </c>
+      <c r="S4" s="2">
         <v>39.196</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>0.88875</v>
@@ -1696,55 +1911,67 @@
       <c r="D5" s="5">
         <v>0.836</v>
       </c>
-      <c r="E5" s="15">
-        <f t="shared" ref="E5:E12" si="8">IFERROR((D5-B5)/B5,0)</f>
+      <c r="E5" s="23">
+        <f t="shared" ref="E5:E12" si="10">IFERROR((D5-B5)/B5,0)</f>
         <v>-0.0593530239099859</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F12" si="9">IFERROR((D5-C5)/C5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="5"/>
-        <v>1.93836390456271</v>
-      </c>
-      <c r="H5" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" s="16" t="e">
+        <f t="shared" ref="F5:F12" si="11">IFERROR((D5-C5)/C5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="J5" s="20">
+      <c r="H5" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="52">
         <v>2.32777777777778</v>
       </c>
       <c r="N5" s="2" t="e">
-        <f>[1]summary!F5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O5" s="2">
+        <f>[1]summaryCPI!E5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O5" s="2" t="e">
+        <f>[1]summaryCPI!D5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P5" s="2">
         <v>0.515899</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.19617224880383</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="4"/>
+        <v>1.12517580872011</v>
+      </c>
+      <c r="S5" s="2">
         <v>55.621</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>1.05</v>
@@ -1755,55 +1982,67 @@
       <c r="D6" s="5">
         <v>0.831469</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.208124761904762</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.367790720661811</v>
+      </c>
+      <c r="G6" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>-0.208124761904762</v>
-      </c>
-      <c r="F6" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="24" t="e">
         <f t="shared" si="9"/>
-        <v>-0.367790720661811</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="5"/>
-        <v>1.11176952573024</v>
-      </c>
-      <c r="H6" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="20">
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="50">
         <v>0.058287037037037</v>
       </c>
       <c r="N6" s="2" t="e">
-        <f>[1]summary!F6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O6" s="2">
+        <f>[1]summaryCPI!E6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O6" s="2" t="e">
+        <f>[1]summaryCPI!D6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P6" s="2">
         <v>0.899467</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
+        <f t="shared" si="3"/>
+        <v>1.20269065954353</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.952380952380952</v>
+      </c>
+      <c r="S6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>1.48</v>
@@ -1812,55 +2051,67 @@
       <c r="D7" s="5">
         <v>1.797233</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="23">
+        <f t="shared" si="10"/>
+        <v>0.214346621621622</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.214346621621622</v>
-      </c>
-      <c r="F7" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="24" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="5"/>
-        <v>1.46862502918892</v>
-      </c>
-      <c r="H7" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="20">
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="50">
         <v>0.221099537037037</v>
       </c>
       <c r="N7" s="2" t="e">
-        <f>[1]summary!F7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O7" s="2">
+        <f>[1]summaryCPI!E7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O7" s="2" t="e">
+        <f>[1]summaryCPI!D7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P7" s="2">
         <v>0.680909</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.556410882729173</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.675675675675676</v>
+      </c>
+      <c r="S7" s="2">
         <v>99.564</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>1.32</v>
@@ -1869,55 +2120,67 @@
       <c r="D8" s="5">
         <v>1.152525</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.126875</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>-0.126875</v>
-      </c>
-      <c r="F8" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="24" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="5"/>
-        <v>1.67332650616119</v>
-      </c>
-      <c r="H8" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="20">
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="52">
         <v>5.38105324074074</v>
       </c>
       <c r="N8" s="2" t="e">
-        <f>[1]summary!F8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O8" s="2">
+        <f>[1]summaryCPI!E8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O8" s="2" t="e">
+        <f>[1]summaryCPI!D8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P8" s="2">
         <v>0.597612</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.867660137524132</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.757575757575758</v>
+      </c>
+      <c r="S8" s="2">
         <v>76.842</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
         <v>1.21</v>
@@ -1926,108 +2189,131 @@
       <c r="D9" s="5">
         <v>0.932275</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.22952479338843</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>-0.22952479338843</v>
-      </c>
-      <c r="F9" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="24" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="5"/>
-        <v>3.18887719633917</v>
-      </c>
-      <c r="H9" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="20">
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="2" t="e">
-        <f>[1]summary!F9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="2">
+        <f>[1]summaryCPI!E9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" s="2" t="e">
+        <f>[1]summaryCPI!D9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" s="2">
         <v>0.31359</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
+        <f t="shared" si="3"/>
+        <v>1.07264487409831</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.826446280991736</v>
+      </c>
+      <c r="S9" s="2">
         <v>55.951</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5">
         <v>1.97</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="15">
+      <c r="E10" s="23">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="F10" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="24" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="5"/>
-        <v>3.92289164188707</v>
-      </c>
-      <c r="H10" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="20">
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="52">
         <v>7.96752314814815</v>
       </c>
       <c r="N10" s="2" t="e">
-        <f>[1]summary!F10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O10" s="2">
+        <f>[1]summaryCPI!E10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O10" s="2" t="e">
+        <f>[1]summaryCPI!D10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P10" s="2">
         <v>0.254914</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.50761421319797</v>
+      </c>
+      <c r="S10" s="2">
         <v>40.142</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5">
         <v>1.335</v>
@@ -2038,55 +2324,67 @@
       <c r="D11" s="5">
         <v>1.415113</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="23">
+        <f t="shared" si="10"/>
+        <v>0.0600097378277153</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="11"/>
+        <v>0.129569201542158</v>
+      </c>
+      <c r="G11" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0.0600097378277153</v>
-      </c>
-      <c r="F11" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="24" t="e">
         <f t="shared" si="9"/>
-        <v>0.129569201542158</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1875483183722</v>
-      </c>
-      <c r="H11" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="20">
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="50">
         <v>0.0677083333333333</v>
       </c>
       <c r="N11" s="2" t="e">
-        <f>[1]summary!F11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O11" s="2">
+        <f>[1]summaryCPI!E11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O11" s="2" t="e">
+        <f>[1]summaryCPI!D11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P11" s="2">
         <v>0.842071</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
+        <f t="shared" ref="Q11:Q19" si="12">1/D11</f>
+        <v>0.706657348211768</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.749063670411985</v>
+      </c>
+      <c r="S11" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5">
         <v>0.73</v>
@@ -2095,55 +2393,67 @@
       <c r="D12" s="5">
         <v>0.505629</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.307357534246575</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>-0.307357534246575</v>
-      </c>
-      <c r="F12" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="24" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="5"/>
-        <v>0.421198055749775</v>
-      </c>
-      <c r="H12" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="20">
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="52">
         <v>2.1987962962963</v>
       </c>
       <c r="N12" s="2" t="e">
-        <f>[1]summary!F12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" s="2">
+        <f>[1]summaryCPI!E12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O12" s="2" t="e">
+        <f>[1]summaryCPI!D12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="2">
         <v>2.37418</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
+        <f t="shared" si="12"/>
+        <v>1.97773466316212</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="4"/>
+        <v>1.36986301369863</v>
+      </c>
+      <c r="S12" s="2">
         <v>70.619</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:19">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5">
         <v>0.485</v>
@@ -2152,55 +2462,67 @@
       <c r="D13" s="5">
         <v>0.727417</v>
       </c>
-      <c r="E13" s="15">
-        <f t="shared" si="3"/>
+      <c r="E13" s="23">
+        <f t="shared" si="5"/>
         <v>0.499828865979382</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="52">
+        <v>3.10461805555556</v>
+      </c>
+      <c r="N13" s="2" t="e">
+        <f>[1]summaryCPI!E13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O13" s="2" t="e">
+        <f>[1]summaryCPI!D13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.859784</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="12"/>
+        <v>1.37472728847415</v>
+      </c>
+      <c r="R13" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1630828208015</v>
-      </c>
-      <c r="H13" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="33">
-        <v>3.10461805555556</v>
-      </c>
-      <c r="N13" s="2" t="e">
-        <f>[1]summary!F13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.859784</v>
-      </c>
-      <c r="P13" s="2">
+        <v>2.06185567010309</v>
+      </c>
+      <c r="S13" s="2">
         <v>30.538</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:19">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5">
         <v>1.84</v>
@@ -2209,55 +2531,67 @@
       <c r="D14" s="5">
         <v>1.390743</v>
       </c>
-      <c r="E14" s="15">
-        <f t="shared" si="3"/>
+      <c r="E14" s="23">
+        <f t="shared" si="5"/>
         <v>-0.244161413043478</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="52">
+        <v>7.72336805555556</v>
+      </c>
+      <c r="N14" s="2" t="e">
+        <f>[1]summaryCPI!E14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O14" s="2" t="e">
+        <f>[1]summaryCPI!D14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.30065</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="12"/>
+        <v>0.719040110214468</v>
+      </c>
+      <c r="R14" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="5"/>
-        <v>3.32612672542824</v>
-      </c>
-      <c r="H14" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="33">
-        <v>7.72336805555556</v>
-      </c>
-      <c r="N14" s="2" t="e">
-        <f>[1]summary!F14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0.30065</v>
-      </c>
-      <c r="P14" s="2">
+        <v>0.543478260869565</v>
+      </c>
+      <c r="S14" s="2">
         <v>45.963</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:19">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5">
         <v>1.2675</v>
@@ -2266,55 +2600,67 @@
       <c r="D15" s="5">
         <v>1.174566</v>
       </c>
-      <c r="E15" s="15">
-        <f t="shared" si="3"/>
+      <c r="E15" s="23">
+        <f t="shared" si="5"/>
         <v>-0.0733207100591715</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="52">
+        <v>3.00680555555556</v>
+      </c>
+      <c r="N15" s="2" t="e">
+        <f>[1]summaryCPI!E15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="2" t="e">
+        <f>[1]summaryCPI!D15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.737944</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="12"/>
+        <v>0.851378296323919</v>
+      </c>
+      <c r="R15" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="5"/>
-        <v>1.35511637739449</v>
-      </c>
-      <c r="H15" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="33">
-        <v>3.00680555555556</v>
-      </c>
-      <c r="N15" s="2" t="e">
-        <f>[1]summary!F15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.737944</v>
-      </c>
-      <c r="P15" s="2">
+        <v>0.788954635108481</v>
+      </c>
+      <c r="S15" s="2">
         <v>45.158</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:19">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5">
         <v>1.19</v>
@@ -2323,55 +2669,67 @@
       <c r="D16" s="5">
         <v>1.030133</v>
       </c>
-      <c r="E16" s="15">
-        <f t="shared" si="3"/>
+      <c r="E16" s="23">
+        <f t="shared" si="5"/>
         <v>-0.134342016806723</v>
       </c>
       <c r="F16" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="50">
+        <v>0.409791666666667</v>
+      </c>
+      <c r="N16" s="2" t="e">
+        <f>[1]summaryCPI!E16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="2" t="e">
+        <f>[1]summaryCPI!D16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.733757</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="12"/>
+        <v>0.970748437337703</v>
+      </c>
+      <c r="R16" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="5"/>
-        <v>1.36284900859549</v>
-      </c>
-      <c r="H16" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L16" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="31">
-        <v>0.409791666666667</v>
-      </c>
-      <c r="N16" s="2" t="e">
-        <f>[1]summary!F16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0.733757</v>
-      </c>
-      <c r="P16" s="2">
+        <v>0.840336134453782</v>
+      </c>
+      <c r="S16" s="2">
         <v>94.292</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:19">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5">
         <v>1.11</v>
@@ -2380,55 +2738,67 @@
       <c r="D17" s="5">
         <v>0.477309</v>
       </c>
-      <c r="E17" s="15">
-        <f t="shared" si="3"/>
+      <c r="E17" s="23">
+        <f t="shared" si="5"/>
         <v>-0.569991891891892</v>
       </c>
       <c r="F17" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="50">
+        <v>0.837685185185185</v>
+      </c>
+      <c r="N17" s="2" t="e">
+        <f>[1]summaryCPI!E17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="2" t="e">
+        <f>[1]summaryCPI!D17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.61859</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="12"/>
+        <v>2.09507886924403</v>
+      </c>
+      <c r="R17" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="5"/>
-        <v>0.617821684305476</v>
-      </c>
-      <c r="H17" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="31">
-        <v>0.837685185185185</v>
-      </c>
-      <c r="N17" s="2" t="e">
-        <f>[1]summary!F17</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1.61859</v>
-      </c>
-      <c r="P17" s="2">
+        <v>0.900900900900901</v>
+      </c>
+      <c r="S17" s="2">
         <v>92.135</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:19">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5">
         <v>0.99</v>
@@ -2437,55 +2807,67 @@
       <c r="D18" s="5">
         <v>0.650208</v>
       </c>
-      <c r="E18" s="15">
-        <f t="shared" si="3"/>
+      <c r="E18" s="23">
+        <f t="shared" si="5"/>
         <v>-0.343224242424242</v>
       </c>
       <c r="F18" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J18" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="52">
+        <v>6.69226851851852</v>
+      </c>
+      <c r="N18" s="2" t="e">
+        <f>[1]summaryCPI!E18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O18" s="2" t="e">
+        <f>[1]summaryCPI!D18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.52221</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5379693882573</v>
+      </c>
+      <c r="R18" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="5"/>
-        <v>1.91493843472932</v>
-      </c>
-      <c r="H18" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="33">
-        <v>6.69226851851852</v>
-      </c>
-      <c r="N18" s="2" t="e">
-        <f>[1]summary!F18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0.52221</v>
-      </c>
-      <c r="P18" s="2">
+        <v>1.01010101010101</v>
+      </c>
+      <c r="S18" s="2">
         <v>65.449</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:19">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" s="5">
         <v>1.48</v>
@@ -2494,108 +2876,131 @@
       <c r="D19" s="5">
         <v>1.181002</v>
       </c>
-      <c r="E19" s="15">
-        <f t="shared" si="3"/>
+      <c r="E19" s="23">
+        <f t="shared" si="5"/>
         <v>-0.202025675675676</v>
       </c>
       <c r="F19" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J19" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="50">
+        <v>0.176099537037037</v>
+      </c>
+      <c r="N19" s="2" t="e">
+        <f>[1]summaryCPI!E19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O19" s="2" t="e">
+        <f>[1]summaryCPI!D19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.964338</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="12"/>
+        <v>0.846738616869404</v>
+      </c>
+      <c r="R19" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="5"/>
-        <v>1.03698080963314</v>
-      </c>
-      <c r="H19" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="31">
-        <v>0.176099537037037</v>
-      </c>
-      <c r="N19" s="2" t="e">
-        <f>[1]summary!F19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.964338</v>
-      </c>
-      <c r="P19" s="2">
+        <v>0.675675675675676</v>
+      </c>
+      <c r="S19" s="2">
         <v>99.999</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:19">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5">
         <v>1.06</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="15">
-        <f t="shared" si="3"/>
+      <c r="E20" s="23">
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="5"/>
-        <v>2.36329518974897</v>
-      </c>
-      <c r="H20" s="16" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="J20" s="20">
+      <c r="H20" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I20" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J20" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="2" t="e">
-        <f>[1]summary!F20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O20" s="2">
+        <f>[1]summaryCPI!E20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O20" s="2" t="e">
+        <f>[1]summaryCPI!D20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P20" s="2">
         <v>0.423138</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.943396226415094</v>
+      </c>
+      <c r="S20" s="2">
         <v>51.407</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:19">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5">
         <v>1.55</v>
@@ -2606,55 +3011,67 @@
       <c r="D21" s="5">
         <v>1.250621</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="3"/>
+      <c r="E21" s="23">
+        <f t="shared" si="5"/>
         <v>-0.193147741935484</v>
       </c>
       <c r="F21" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.187771312039695</v>
+      </c>
+      <c r="G21" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J21" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="51">
+        <v>0.797916666666667</v>
+      </c>
+      <c r="N21" s="2" t="e">
+        <f>[1]summaryCPI!E21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O21" s="2" t="e">
+        <f>[1]summaryCPI!D21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.740832</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" ref="Q21:Q25" si="13">1/D21</f>
+        <v>0.799602757350148</v>
+      </c>
+      <c r="R21" s="2">
         <f t="shared" si="4"/>
-        <v>-0.187771312039695</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="5"/>
-        <v>1.3498337004881</v>
-      </c>
-      <c r="H21" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="32">
-        <v>0.797916666666667</v>
-      </c>
-      <c r="N21" s="2" t="e">
-        <f>[1]summary!F21</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.740832</v>
-      </c>
-      <c r="P21" s="2">
+        <v>0.645161290322581</v>
+      </c>
+      <c r="S21" s="2">
         <v>99.999</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:19">
       <c r="A22" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5">
         <v>0.87</v>
@@ -2663,55 +3080,67 @@
       <c r="D22" s="5">
         <v>0.604481</v>
       </c>
-      <c r="E22" s="15">
-        <f t="shared" si="3"/>
+      <c r="E22" s="23">
+        <f t="shared" si="5"/>
         <v>-0.305194252873563</v>
       </c>
       <c r="F22" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J22" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="52">
+        <v>1.02019675925926</v>
+      </c>
+      <c r="N22" s="2" t="e">
+        <f>[1]summaryCPI!E22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O22" s="2" t="e">
+        <f>[1]summaryCPI!D22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.586157</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="13"/>
+        <v>1.65431171533927</v>
+      </c>
+      <c r="R22" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="5"/>
-        <v>1.70602756599341</v>
-      </c>
-      <c r="H22" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J22" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="33">
-        <v>1.02019675925926</v>
-      </c>
-      <c r="N22" s="2" t="e">
-        <f>[1]summary!F22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0.586157</v>
-      </c>
-      <c r="P22" s="2">
+        <v>1.14942528735632</v>
+      </c>
+      <c r="S22" s="2">
         <v>47.438</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:19">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5">
         <v>1.27625</v>
@@ -2720,55 +3149,67 @@
       <c r="D23" s="5">
         <v>1.09169</v>
       </c>
-      <c r="E23" s="15">
-        <f t="shared" si="3"/>
+      <c r="E23" s="23">
+        <f t="shared" si="5"/>
         <v>-0.144611165523996</v>
       </c>
       <c r="F23" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J23" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="52">
+        <v>6.01892361111111</v>
+      </c>
+      <c r="N23" s="2" t="e">
+        <f>[1]summaryCPI!E23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O23" s="2" t="e">
+        <f>[1]summaryCPI!D23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.55619</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="13"/>
+        <v>0.916010955491028</v>
+      </c>
+      <c r="R23" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="5"/>
-        <v>1.79794674481742</v>
-      </c>
-      <c r="H23" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="33">
-        <v>6.01892361111111</v>
-      </c>
-      <c r="N23" s="2" t="e">
-        <f>[1]summary!F23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0.55619</v>
-      </c>
-      <c r="P23" s="2">
+        <v>0.783545543584721</v>
+      </c>
+      <c r="S23" s="2">
         <v>95.844</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:19">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5">
         <v>0.99375</v>
@@ -2777,55 +3218,67 @@
       <c r="D24" s="5">
         <v>0.657295</v>
       </c>
-      <c r="E24" s="15">
-        <f t="shared" si="3"/>
+      <c r="E24" s="23">
+        <f t="shared" si="5"/>
         <v>-0.33857106918239</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I24" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J24" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="52">
+        <v>2.46215277777778</v>
+      </c>
+      <c r="N24" s="2" t="e">
+        <f>[1]summaryCPI!E24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O24" s="2" t="e">
+        <f>[1]summaryCPI!D24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1.1409</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="13"/>
+        <v>1.52138689629466</v>
+      </c>
+      <c r="R24" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="5"/>
-        <v>0.876501007976159</v>
-      </c>
-      <c r="H24" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J24" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="33">
-        <v>2.46215277777778</v>
-      </c>
-      <c r="N24" s="2" t="e">
-        <f>[1]summary!F24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1.1409</v>
-      </c>
-      <c r="P24" s="2">
+        <v>1.0062893081761</v>
+      </c>
+      <c r="S24" s="2">
         <v>56.036</v>
       </c>
     </row>
-    <row r="25" ht="17.55" spans="1:16">
+    <row r="25" ht="17.55" spans="1:19">
       <c r="A25" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5">
         <v>1.3</v>
@@ -2836,65 +3289,77 @@
       <c r="D25" s="9">
         <v>1.277799</v>
       </c>
-      <c r="E25" s="17">
-        <f t="shared" si="3"/>
+      <c r="E25" s="25">
+        <f t="shared" si="5"/>
         <v>-0.0170776923076924</v>
       </c>
       <c r="F25" s="9">
+        <f t="shared" si="6"/>
+        <v>-0.260729782581026</v>
+      </c>
+      <c r="G25" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="24" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="24" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J25" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="51">
+        <v>0.460416666666667</v>
+      </c>
+      <c r="N25" s="2" t="e">
+        <f>[1]summaryCPI!E25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O25" s="2" t="e">
+        <f>[1]summaryCPI!D25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.59937</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="13"/>
+        <v>0.782595697758411</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" si="4"/>
-        <v>-0.260729782581026</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="5"/>
-        <v>1.66841850609807</v>
-      </c>
-      <c r="H25" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J25" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="32">
-        <v>0.460416666666667</v>
-      </c>
-      <c r="N25" s="2" t="e">
-        <f>[1]summary!F25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0.59937</v>
-      </c>
-      <c r="P25" s="2">
+        <v>0.769230769230769</v>
+      </c>
+      <c r="S25" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="18">
+        <v>42</v>
+      </c>
+      <c r="E26" s="26">
         <f t="array" ref="E26">GEOMEAN(ABS(E2:E25))</f>
         <v>0.184549597318419</v>
       </c>
-      <c r="F26" s="19">
-        <f t="array" ref="F26">GEOMEAN(ABS(F2:F25))</f>
-        <v>0.696463492679121</v>
-      </c>
-      <c r="J26" s="25">
+      <c r="F26" s="21"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="38">
         <f t="array" ref="J26">GEOMEAN(ABS(J2:J25))</f>
         <v>1</v>
       </c>
@@ -2902,24 +3367,21 @@
         <f t="array" ref="K26">GEOMEAN(ABS(K2:K25))</f>
         <v>1</v>
       </c>
-      <c r="L26" s="19">
-        <f t="array" ref="L26">GEOMEAN(ABS(L2:L25))</f>
-        <v>1</v>
-      </c>
+      <c r="L26"/>
     </row>
     <row r="27" spans="4:12">
       <c r="D27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="20">
+        <v>43</v>
+      </c>
+      <c r="E27" s="28">
         <f t="array" ref="E27">GEOMEAN(ABS(E2:E11))</f>
         <v>0.142217606410036</v>
       </c>
-      <c r="F27" s="21">
-        <f t="array" ref="F27">GEOMEAN(ABS(F2:F11))</f>
-        <v>0.567510716842168</v>
-      </c>
-      <c r="J27" s="27">
+      <c r="F27" s="21"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="39">
         <f t="array" ref="J27">GEOMEAN(ABS(J2:J11))</f>
         <v>1</v>
       </c>
@@ -2927,24 +3389,21 @@
         <f t="array" ref="K27">GEOMEAN(ABS(K2:K11))</f>
         <v>1</v>
       </c>
-      <c r="L27" s="21">
-        <f t="array" ref="L27">GEOMEAN(ABS(L2:L11))</f>
-        <v>1</v>
-      </c>
+      <c r="L27"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="20">
+      <c r="D28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="28">
         <f t="array" ref="E28">GEOMEAN(ABS(E12:E25))</f>
         <v>0.22230103537132</v>
       </c>
-      <c r="F28" s="21">
-        <f t="array" ref="F28">GEOMEAN(ABS(F12:F25))</f>
-        <v>0.80614971717638</v>
-      </c>
-      <c r="J28" s="27">
+      <c r="F28" s="21"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="39">
         <f t="array" ref="J28">GEOMEAN(ABS(J12:J25))</f>
         <v>1</v>
       </c>
@@ -2952,24 +3411,21 @@
         <f t="array" ref="K28">GEOMEAN(ABS(K12:K25))</f>
         <v>1</v>
       </c>
-      <c r="L28" s="21">
-        <f t="array" ref="L28">GEOMEAN(ABS(L12:L25))</f>
-        <v>1</v>
-      </c>
+      <c r="L28"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="20">
+      <c r="D29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="28">
         <f t="array" ref="E29">AVERAGE(ABS(E2:E25))</f>
         <v>0.292483951415808</v>
       </c>
-      <c r="F29" s="21">
-        <f t="array" ref="F29">AVERAGE(ABS(F2:F25))</f>
-        <v>0.834107432490554</v>
-      </c>
-      <c r="J29" s="27">
+      <c r="F29" s="21"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="39">
         <f t="array" ref="J29">AVERAGE(ABS(J2:J25))</f>
         <v>1</v>
       </c>
@@ -2977,24 +3433,21 @@
         <f t="array" ref="K29">AVERAGE(ABS(K2:K25))</f>
         <v>1</v>
       </c>
-      <c r="L29" s="21">
-        <f t="array" ref="L29">AVERAGE(ABS(L2:L25))</f>
-        <v>1</v>
-      </c>
+      <c r="L29"/>
     </row>
     <row r="30" spans="4:12">
       <c r="D30" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="20">
+        <v>46</v>
+      </c>
+      <c r="E30" s="28">
         <f t="array" ref="E30">AVERAGE(ABS(E2:E11))</f>
         <v>0.264676056202914</v>
       </c>
-      <c r="F30" s="21">
-        <f t="array" ref="F30">AVERAGE(ABS(F2:F11))</f>
-        <v>0.757007728515258</v>
-      </c>
-      <c r="J30" s="27">
+      <c r="F30" s="21"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="39">
         <f t="array" ref="J30">AVERAGE(ABS(J2:J11))</f>
         <v>1</v>
       </c>
@@ -3002,34 +3455,301 @@
         <f t="array" ref="K30">AVERAGE(ABS(K2:K11))</f>
         <v>1</v>
       </c>
-      <c r="L30" s="21">
-        <f t="array" ref="L30">AVERAGE(ABS(L2:L11))</f>
-        <v>1</v>
-      </c>
+      <c r="L30"/>
     </row>
     <row r="31" ht="17.55" spans="4:12">
-      <c r="D31" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="22">
+      <c r="D31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="29">
         <f t="array" ref="E31">AVERAGE(ABS(E12:E25))</f>
         <v>0.312346733710733</v>
       </c>
-      <c r="F31" s="23">
-        <f t="array" ref="F31">AVERAGE(ABS(F12:F25))</f>
-        <v>0.889178649615766</v>
-      </c>
-      <c r="J31" s="29">
+      <c r="F31" s="21"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="40">
         <f t="array" ref="J31">AVERAGE(ABS(J12:J25))</f>
         <v>1</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="29">
         <f t="array" ref="K31">AVERAGE(ABS(K12:K25))</f>
         <v>1</v>
       </c>
-      <c r="L31" s="23">
-        <f t="array" ref="L31">AVERAGE(ABS(L12:L25))</f>
-        <v>1</v>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="6:12">
+      <c r="F32" s="27"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="array" ref="E33">GEOMEAN(1+ABS(Q2:Q25-R2:R25)/(R2:R25))-1</f>
+        <v>0.315975155537865</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="41" t="e">
+        <f t="array" ref="J33">GEOMEAN(1+ABS(O2:O25-P2:P25)/(P2:P25))-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K33" s="42" t="e">
+        <f t="array" ref="K33">GEOMEAN(1+ABS(N2:N25-R2:R25)/(R2:R25))-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="16"/>
+      <c r="D34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="31">
+        <f t="array" ref="E34">GEOMEAN(1+ABS(Q2:Q11-R2:R11)/(R2:R11))-1</f>
+        <v>0.231947110984238</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="43" t="e">
+        <f t="array" ref="J34">GEOMEAN(1+ABS(O2:O11-P2:P11)/(P2:P11))-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K34" s="44" t="e">
+        <f t="array" ref="K34">GEOMEAN(1+ABS(N2:N11-R2:R11)/(R2:R11))-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="18"/>
+      <c r="D35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="32">
+        <f t="array" ref="E35">GEOMEAN(1+ABS(Q12:Q25-R12:R25)/(R12:R25))-1</f>
+        <v>0.379481863784545</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="45" t="e">
+        <f t="array" ref="J35">GEOMEAN(1+ABS(O12:O25-P12:P25)/(P12:P25))-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K35" s="46" t="e">
+        <f t="array" ref="K35">GEOMEAN(1+ABS(N12:N25-R12:R25)/(R12:R25))-1</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="33">
+        <f t="array" ref="E36">AVERAGE(ABS(Q2:Q25-R2:R25))/AVERAGE(R2:R25)</f>
+        <v>0.34726045940567</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="14" t="e">
+        <f t="array" ref="J36">AVERAGE(ABS(O2:O25-P2:P25))/AVERAGE(P2:P25)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K36" s="47" t="e">
+        <f t="array" ref="K36">AVERAGE(ABS(N2:N25-R2:R25))/AVERAGE(R2:R25)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="C37" s="16"/>
+      <c r="D37" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="34">
+        <f t="array" ref="E37">AVERAGE(ABS(Q2:Q11-R2:R11))/AVERAGE(R2:R11)</f>
+        <v>0.221166241953315</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="16" t="e">
+        <f t="array" ref="J37">AVERAGE(ABS(O2:O11-P2:P11))/AVERAGE(P2:P11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K37" s="48" t="e">
+        <f t="array" ref="K37">AVERAGE(ABS(N2:N11-R2:R11))/AVERAGE(R2:R11)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="C38" s="18"/>
+      <c r="D38" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="35">
+        <f t="array" ref="E38">AVERAGE(ABS(Q12:Q25-R12:R25))/AVERAGE(R12:R25)</f>
+        <v>0.431499626298951</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="18" t="e">
+        <f t="array" ref="J38">AVERAGE(ABS(O12:O25-P12:P25))/AVERAGE(P12:P25)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K38" s="49" t="e">
+        <f t="array" ref="K38">AVERAGE(ABS(N12:N25-R12:R25))/AVERAGE(R12:R25)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="33">
+        <f t="array" ref="E39">(AVERAGE((Q2:Q25-R2:R25)^2)/AVERAGE((R2:R25)^2))^0.5</f>
+        <v>0.445006570402184</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="14" t="e">
+        <f t="array" ref="J39">(AVERAGE((O2:O25-P2:P25)^2)/AVERAGE((P2:P25)^2))^0.5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K39" s="47" t="e">
+        <f t="array" ref="K39">(AVERAGE((N2:N25-R2:R25)^2)/AVERAGE((R2:R25)^2))^0.5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="C40" s="16"/>
+      <c r="D40" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="34">
+        <f t="array" ref="E40">(AVERAGE((Q2:Q11-R2:R11)^2)/AVERAGE((R2:R11)^2))^0.5</f>
+        <v>0.26676163250211</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="16" t="e">
+        <f t="array" ref="J40">(AVERAGE((O2:O11-P2:P11)^2)/AVERAGE((P2:P11)^2))^0.5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K40" s="48" t="e">
+        <f t="array" ref="K40">(AVERAGE((N2:N11-R2:R11)^2)/AVERAGE((R2:R11)^2))^0.5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="C41" s="18"/>
+      <c r="D41" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="35">
+        <f t="array" ref="E41">(AVERAGE((Q12:Q25-R12:R25)^2)/AVERAGE((R12:R25)^2))^0.5</f>
+        <v>0.523477031023408</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="18" t="e">
+        <f t="array" ref="J41">(AVERAGE((O12:O25-P12:P25)^2)/AVERAGE((P12:P25)^2))^0.5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K41" s="49" t="e">
+        <f t="array" ref="K41">(AVERAGE((N12:N25-R12:R25)^2)/AVERAGE((R12:R25)^2))^0.5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="33">
+        <f t="array" ref="E42">AVERAGE(ABS(Q2:Q25-R2:R25)/(R2:R25))</f>
+        <v>0.348394362956864</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="14" t="e">
+        <f t="array" ref="J42">AVERAGE(ABS(O2:O25-P2:P25)/(P2:P25))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K42" s="47" t="e">
+        <f t="array" ref="K42">AVERAGE(ABS(N2:N25-R2:R25)/(R2:R25))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="16"/>
+      <c r="D43" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="34">
+        <f t="array" ref="E43">AVERAGE(ABS(Q2:Q11-R2:R11)/(R2:R11))</f>
+        <v>0.254886723228489</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="16" t="e">
+        <f t="array" ref="J43">AVERAGE(ABS(O2:O11-P2:P11)/(P2:P11))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K43" s="48" t="e">
+        <f t="array" ref="K43">AVERAGE(ABS(N2:N11-R2:R11)/(R2:R11))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="18"/>
+      <c r="D44" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="35">
+        <f t="array" ref="E44">AVERAGE(ABS(Q12:Q25-R12:R25)/(R12:R25))</f>
+        <v>0.415185534191417</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="18" t="e">
+        <f t="array" ref="J44">AVERAGE(ABS(O12:O25-P12:P25)/(P12:P25))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K44" s="49" t="e">
+        <f t="array" ref="K44">AVERAGE(ABS(N12:N25-R12:R25)/(R12:R25))</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -3037,34 +3757,51 @@
   <autoFilter ref="A1:A25">
     <extLst/>
   </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+  </mergeCells>
   <conditionalFormatting sqref="I2:I25">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+      <formula>-0.25</formula>
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P25">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S25">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F25 J2:L25">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
+      <formula>-0.25</formula>
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:L25">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="between">
+      <formula>-0.25</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="lessThanOrEqual">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31 E33:E44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>-0.25</formula>
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P25">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>75</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F25 J2:L31">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
-      <formula>-0.25</formula>
-      <formula>0.25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:L25">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="between">
-      <formula>-0.25</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="9" operator="lessThanOrEqual">
-      <formula>0.25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:F31">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+  <conditionalFormatting sqref="J26:K31 J33:K44">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>-0.25</formula>
       <formula>0.25</formula>
     </cfRule>

--- a/data/meta/gem5_statistics_result_template.xlsx
+++ b/data/meta/gem5_statistics_result_template.xlsx
@@ -213,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -249,14 +249,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +295,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,23 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -316,37 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -355,7 +356,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,25 +378,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -431,25 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,49 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +467,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +521,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,49 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,30 +846,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,6 +878,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -947,157 +938,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,9 +1129,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,9 +1250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1604,10 +1598,10 @@
   <sheetPr/>
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18269230769231" defaultRowHeight="16.8"/>
@@ -1687,7 +1681,7 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1702,7 +1696,7 @@
       <c r="D2" s="5">
         <v>1.705499</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <f>IFERROR((D2-B2)/B2,0)</f>
         <v>0.39795</v>
       </c>
@@ -1711,30 +1705,30 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="e">
-        <f>1/O2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="24" t="e">
+        <f>1/P2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="23" t="e">
         <f>1/N2</f>
         <v>#REF!</v>
       </c>
-      <c r="I2" s="24" t="e">
+      <c r="I2" s="23" t="e">
         <f>(H2-D2)/D2</f>
         <v>#REF!</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="35">
         <f t="shared" ref="J2:J25" si="0">IFERROR((H2-G2)/G2,1)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="35">
         <f t="shared" ref="K2:K25" si="1">IFERROR((H2-B2)/B2,1)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="35">
         <f t="shared" ref="L2:L25" si="2">IFERROR((H2-C2)/C2,1)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="49">
         <v>0.345219907407407</v>
       </c>
       <c r="N2" s="2" t="e">
@@ -1745,8 +1739,9 @@
         <f>[1]summaryCPI!D2</f>
         <v>#REF!</v>
       </c>
-      <c r="P2" s="2">
-        <v>0.456226</v>
+      <c r="P2" s="2" t="e">
+        <f>[1]summaryCPI!C2</f>
+        <v>#REF!</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ref="Q2:Q9" si="3">1/D2</f>
@@ -1773,7 +1768,7 @@
       <c r="D3" s="5">
         <v>0.995271</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <f t="shared" ref="E3:E25" si="5">IFERROR((D3-B3)/B3,0)</f>
         <v>0.00532424242424245</v>
       </c>
@@ -1782,30 +1777,30 @@
         <v>-0.0727173629486081</v>
       </c>
       <c r="G3" s="5" t="e">
-        <f t="shared" ref="G3:G25" si="7">1/O3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" s="24" t="e">
+        <f t="shared" ref="G3:G25" si="7">1/P3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="23" t="e">
         <f t="shared" ref="H3:H25" si="8">1/N3</f>
         <v>#REF!</v>
       </c>
-      <c r="I3" s="24" t="e">
+      <c r="I3" s="23" t="e">
         <f t="shared" ref="I3:I25" si="9">(H3-D3)/D3</f>
         <v>#REF!</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="50">
         <v>0.15625</v>
       </c>
       <c r="N3" s="2" t="e">
@@ -1816,8 +1811,9 @@
         <f>[1]summaryCPI!D3</f>
         <v>#REF!</v>
       </c>
-      <c r="P3" s="2">
-        <v>0.83601</v>
+      <c r="P3" s="2" t="e">
+        <f>[1]summaryCPI!C3</f>
+        <v>#REF!</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="3"/>
@@ -1842,7 +1838,7 @@
       <c r="D4" s="5">
         <v>0.847509</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" si="5"/>
         <v>0.345252380952381</v>
       </c>
@@ -1854,27 +1850,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H4" s="24" t="e">
+      <c r="H4" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I4" s="24" t="e">
+      <c r="I4" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="51">
         <v>4.57329861111111</v>
       </c>
       <c r="N4" s="2" t="e">
@@ -1885,8 +1881,9 @@
         <f>[1]summaryCPI!D4</f>
         <v>#REF!</v>
       </c>
-      <c r="P4" s="2">
-        <v>0.86706</v>
+      <c r="P4" s="2" t="e">
+        <f>[1]summaryCPI!C4</f>
+        <v>#REF!</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="3"/>
@@ -1911,7 +1908,7 @@
       <c r="D5" s="5">
         <v>0.836</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" ref="E5:E12" si="10">IFERROR((D5-B5)/B5,0)</f>
         <v>-0.0593530239099859</v>
       </c>
@@ -1923,27 +1920,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="24" t="e">
+      <c r="H5" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I5" s="24" t="e">
+      <c r="I5" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="51">
         <v>2.32777777777778</v>
       </c>
       <c r="N5" s="2" t="e">
@@ -1954,8 +1951,9 @@
         <f>[1]summaryCPI!D5</f>
         <v>#REF!</v>
       </c>
-      <c r="P5" s="2">
-        <v>0.515899</v>
+      <c r="P5" s="2" t="e">
+        <f>[1]summaryCPI!C5</f>
+        <v>#REF!</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="3"/>
@@ -1982,7 +1980,7 @@
       <c r="D6" s="5">
         <v>0.831469</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f t="shared" si="10"/>
         <v>-0.208124761904762</v>
       </c>
@@ -1994,27 +1992,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="24" t="e">
+      <c r="H6" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="24" t="e">
+      <c r="I6" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="49">
         <v>0.058287037037037</v>
       </c>
       <c r="N6" s="2" t="e">
@@ -2025,8 +2023,9 @@
         <f>[1]summaryCPI!D6</f>
         <v>#REF!</v>
       </c>
-      <c r="P6" s="2">
-        <v>0.899467</v>
+      <c r="P6" s="2" t="e">
+        <f>[1]summaryCPI!C6</f>
+        <v>#REF!</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="3"/>
@@ -2051,7 +2050,7 @@
       <c r="D7" s="5">
         <v>1.797233</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <f t="shared" si="10"/>
         <v>0.214346621621622</v>
       </c>
@@ -2063,27 +2062,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="24" t="e">
+      <c r="H7" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I7" s="24" t="e">
+      <c r="I7" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="49">
         <v>0.221099537037037</v>
       </c>
       <c r="N7" s="2" t="e">
@@ -2094,8 +2093,9 @@
         <f>[1]summaryCPI!D7</f>
         <v>#REF!</v>
       </c>
-      <c r="P7" s="2">
-        <v>0.680909</v>
+      <c r="P7" s="2" t="e">
+        <f>[1]summaryCPI!C7</f>
+        <v>#REF!</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="3"/>
@@ -2120,7 +2120,7 @@
       <c r="D8" s="5">
         <v>1.152525</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <f t="shared" si="10"/>
         <v>-0.126875</v>
       </c>
@@ -2132,27 +2132,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H8" s="24" t="e">
+      <c r="H8" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I8" s="24" t="e">
+      <c r="I8" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="51">
         <v>5.38105324074074</v>
       </c>
       <c r="N8" s="2" t="e">
@@ -2163,8 +2163,9 @@
         <f>[1]summaryCPI!D8</f>
         <v>#REF!</v>
       </c>
-      <c r="P8" s="2">
-        <v>0.597612</v>
+      <c r="P8" s="2" t="e">
+        <f>[1]summaryCPI!C8</f>
+        <v>#REF!</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="3"/>
@@ -2189,7 +2190,7 @@
       <c r="D9" s="5">
         <v>0.932275</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f t="shared" si="10"/>
         <v>-0.22952479338843</v>
       </c>
@@ -2201,23 +2202,23 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H9" s="24" t="e">
+      <c r="H9" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I9" s="24" t="e">
+      <c r="I9" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2230,8 +2231,9 @@
         <f>[1]summaryCPI!D9</f>
         <v>#REF!</v>
       </c>
-      <c r="P9" s="2">
-        <v>0.31359</v>
+      <c r="P9" s="2" t="e">
+        <f>[1]summaryCPI!C9</f>
+        <v>#REF!</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="3"/>
@@ -2254,7 +2256,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
@@ -2266,27 +2268,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="24" t="e">
+      <c r="H10" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I10" s="24" t="e">
+      <c r="I10" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="51">
         <v>7.96752314814815</v>
       </c>
       <c r="N10" s="2" t="e">
@@ -2297,8 +2299,9 @@
         <f>[1]summaryCPI!D10</f>
         <v>#REF!</v>
       </c>
-      <c r="P10" s="2">
-        <v>0.254914</v>
+      <c r="P10" s="2" t="e">
+        <f>[1]summaryCPI!C10</f>
+        <v>#REF!</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2324,7 +2327,7 @@
       <c r="D11" s="5">
         <v>1.415113</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <f t="shared" si="10"/>
         <v>0.0600097378277153</v>
       </c>
@@ -2336,27 +2339,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="24" t="e">
+      <c r="H11" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I11" s="24" t="e">
+      <c r="I11" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="49">
         <v>0.0677083333333333</v>
       </c>
       <c r="N11" s="2" t="e">
@@ -2367,8 +2370,9 @@
         <f>[1]summaryCPI!D11</f>
         <v>#REF!</v>
       </c>
-      <c r="P11" s="2">
-        <v>0.842071</v>
+      <c r="P11" s="2" t="e">
+        <f>[1]summaryCPI!C11</f>
+        <v>#REF!</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ref="Q11:Q19" si="12">1/D11</f>
@@ -2393,7 +2397,7 @@
       <c r="D12" s="5">
         <v>0.505629</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <f t="shared" si="10"/>
         <v>-0.307357534246575</v>
       </c>
@@ -2405,27 +2409,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="24" t="e">
+      <c r="H12" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I12" s="24" t="e">
+      <c r="I12" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="51">
         <v>2.1987962962963</v>
       </c>
       <c r="N12" s="2" t="e">
@@ -2436,8 +2440,9 @@
         <f>[1]summaryCPI!D12</f>
         <v>#REF!</v>
       </c>
-      <c r="P12" s="2">
-        <v>2.37418</v>
+      <c r="P12" s="2" t="e">
+        <f>[1]summaryCPI!C12</f>
+        <v>#REF!</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="12"/>
@@ -2462,7 +2467,7 @@
       <c r="D13" s="5">
         <v>0.727417</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <f t="shared" si="5"/>
         <v>0.499828865979382</v>
       </c>
@@ -2474,27 +2479,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H13" s="24" t="e">
+      <c r="H13" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I13" s="24" t="e">
+      <c r="I13" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="51">
         <v>3.10461805555556</v>
       </c>
       <c r="N13" s="2" t="e">
@@ -2505,8 +2510,9 @@
         <f>[1]summaryCPI!D13</f>
         <v>#REF!</v>
       </c>
-      <c r="P13" s="2">
-        <v>0.859784</v>
+      <c r="P13" s="2" t="e">
+        <f>[1]summaryCPI!C13</f>
+        <v>#REF!</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="12"/>
@@ -2531,7 +2537,7 @@
       <c r="D14" s="5">
         <v>1.390743</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <f t="shared" si="5"/>
         <v>-0.244161413043478</v>
       </c>
@@ -2543,27 +2549,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H14" s="24" t="e">
+      <c r="H14" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I14" s="24" t="e">
+      <c r="I14" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="51">
         <v>7.72336805555556</v>
       </c>
       <c r="N14" s="2" t="e">
@@ -2574,8 +2580,9 @@
         <f>[1]summaryCPI!D14</f>
         <v>#REF!</v>
       </c>
-      <c r="P14" s="2">
-        <v>0.30065</v>
+      <c r="P14" s="2" t="e">
+        <f>[1]summaryCPI!C14</f>
+        <v>#REF!</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="12"/>
@@ -2600,7 +2607,7 @@
       <c r="D15" s="5">
         <v>1.174566</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <f t="shared" si="5"/>
         <v>-0.0733207100591715</v>
       </c>
@@ -2612,27 +2619,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H15" s="24" t="e">
+      <c r="H15" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I15" s="24" t="e">
+      <c r="I15" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="51">
         <v>3.00680555555556</v>
       </c>
       <c r="N15" s="2" t="e">
@@ -2643,8 +2650,9 @@
         <f>[1]summaryCPI!D15</f>
         <v>#REF!</v>
       </c>
-      <c r="P15" s="2">
-        <v>0.737944</v>
+      <c r="P15" s="2" t="e">
+        <f>[1]summaryCPI!C15</f>
+        <v>#REF!</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="12"/>
@@ -2669,7 +2677,7 @@
       <c r="D16" s="5">
         <v>1.030133</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <f t="shared" si="5"/>
         <v>-0.134342016806723</v>
       </c>
@@ -2681,27 +2689,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="24" t="e">
+      <c r="H16" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I16" s="24" t="e">
+      <c r="I16" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="49">
         <v>0.409791666666667</v>
       </c>
       <c r="N16" s="2" t="e">
@@ -2712,8 +2720,9 @@
         <f>[1]summaryCPI!D16</f>
         <v>#REF!</v>
       </c>
-      <c r="P16" s="2">
-        <v>0.733757</v>
+      <c r="P16" s="2" t="e">
+        <f>[1]summaryCPI!C16</f>
+        <v>#REF!</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="12"/>
@@ -2738,7 +2747,7 @@
       <c r="D17" s="5">
         <v>0.477309</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <f t="shared" si="5"/>
         <v>-0.569991891891892</v>
       </c>
@@ -2750,27 +2759,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H17" s="24" t="e">
+      <c r="H17" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="24" t="e">
+      <c r="I17" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="49">
         <v>0.837685185185185</v>
       </c>
       <c r="N17" s="2" t="e">
@@ -2781,8 +2790,9 @@
         <f>[1]summaryCPI!D17</f>
         <v>#REF!</v>
       </c>
-      <c r="P17" s="2">
-        <v>1.61859</v>
+      <c r="P17" s="2" t="e">
+        <f>[1]summaryCPI!C17</f>
+        <v>#REF!</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="12"/>
@@ -2807,7 +2817,7 @@
       <c r="D18" s="5">
         <v>0.650208</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <f t="shared" si="5"/>
         <v>-0.343224242424242</v>
       </c>
@@ -2819,27 +2829,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H18" s="24" t="e">
+      <c r="H18" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="24" t="e">
+      <c r="I18" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="51">
         <v>6.69226851851852</v>
       </c>
       <c r="N18" s="2" t="e">
@@ -2850,8 +2860,9 @@
         <f>[1]summaryCPI!D18</f>
         <v>#REF!</v>
       </c>
-      <c r="P18" s="2">
-        <v>0.52221</v>
+      <c r="P18" s="2" t="e">
+        <f>[1]summaryCPI!C18</f>
+        <v>#REF!</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="12"/>
@@ -2876,7 +2887,7 @@
       <c r="D19" s="5">
         <v>1.181002</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <f t="shared" si="5"/>
         <v>-0.202025675675676</v>
       </c>
@@ -2888,27 +2899,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H19" s="24" t="e">
+      <c r="H19" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I19" s="24" t="e">
+      <c r="I19" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="49">
         <v>0.176099537037037</v>
       </c>
       <c r="N19" s="2" t="e">
@@ -2919,8 +2930,9 @@
         <f>[1]summaryCPI!D19</f>
         <v>#REF!</v>
       </c>
-      <c r="P19" s="2">
-        <v>0.964338</v>
+      <c r="P19" s="2" t="e">
+        <f>[1]summaryCPI!C19</f>
+        <v>#REF!</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="12"/>
@@ -2943,7 +2955,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
@@ -2955,23 +2967,23 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H20" s="24" t="e">
+      <c r="H20" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I20" s="24" t="e">
+      <c r="I20" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2984,8 +2996,9 @@
         <f>[1]summaryCPI!D20</f>
         <v>#REF!</v>
       </c>
-      <c r="P20" s="2">
-        <v>0.423138</v>
+      <c r="P20" s="2" t="e">
+        <f>[1]summaryCPI!C20</f>
+        <v>#REF!</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -3011,7 +3024,7 @@
       <c r="D21" s="5">
         <v>1.250621</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <f t="shared" si="5"/>
         <v>-0.193147741935484</v>
       </c>
@@ -3023,27 +3036,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H21" s="24" t="e">
+      <c r="H21" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I21" s="24" t="e">
+      <c r="I21" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="50">
         <v>0.797916666666667</v>
       </c>
       <c r="N21" s="2" t="e">
@@ -3054,8 +3067,9 @@
         <f>[1]summaryCPI!D21</f>
         <v>#REF!</v>
       </c>
-      <c r="P21" s="2">
-        <v>0.740832</v>
+      <c r="P21" s="2" t="e">
+        <f>[1]summaryCPI!C21</f>
+        <v>#REF!</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21:Q25" si="13">1/D21</f>
@@ -3080,7 +3094,7 @@
       <c r="D22" s="5">
         <v>0.604481</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <f t="shared" si="5"/>
         <v>-0.305194252873563</v>
       </c>
@@ -3092,27 +3106,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H22" s="24" t="e">
+      <c r="H22" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I22" s="24" t="e">
+      <c r="I22" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M22" s="52">
+      <c r="M22" s="51">
         <v>1.02019675925926</v>
       </c>
       <c r="N22" s="2" t="e">
@@ -3123,8 +3137,9 @@
         <f>[1]summaryCPI!D22</f>
         <v>#REF!</v>
       </c>
-      <c r="P22" s="2">
-        <v>0.586157</v>
+      <c r="P22" s="2" t="e">
+        <f>[1]summaryCPI!C22</f>
+        <v>#REF!</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="13"/>
@@ -3149,7 +3164,7 @@
       <c r="D23" s="5">
         <v>1.09169</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <f t="shared" si="5"/>
         <v>-0.144611165523996</v>
       </c>
@@ -3161,27 +3176,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H23" s="24" t="e">
+      <c r="H23" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I23" s="24" t="e">
+      <c r="I23" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M23" s="52">
+      <c r="M23" s="51">
         <v>6.01892361111111</v>
       </c>
       <c r="N23" s="2" t="e">
@@ -3192,8 +3207,9 @@
         <f>[1]summaryCPI!D23</f>
         <v>#REF!</v>
       </c>
-      <c r="P23" s="2">
-        <v>0.55619</v>
+      <c r="P23" s="2" t="e">
+        <f>[1]summaryCPI!C23</f>
+        <v>#REF!</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="13"/>
@@ -3218,7 +3234,7 @@
       <c r="D24" s="5">
         <v>0.657295</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <f t="shared" si="5"/>
         <v>-0.33857106918239</v>
       </c>
@@ -3230,27 +3246,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H24" s="24" t="e">
+      <c r="H24" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I24" s="24" t="e">
+      <c r="I24" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M24" s="52">
+      <c r="M24" s="51">
         <v>2.46215277777778</v>
       </c>
       <c r="N24" s="2" t="e">
@@ -3261,8 +3277,9 @@
         <f>[1]summaryCPI!D24</f>
         <v>#REF!</v>
       </c>
-      <c r="P24" s="2">
-        <v>1.1409</v>
+      <c r="P24" s="2" t="e">
+        <f>[1]summaryCPI!C24</f>
+        <v>#REF!</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="13"/>
@@ -3289,7 +3306,7 @@
       <c r="D25" s="9">
         <v>1.277799</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <f t="shared" si="5"/>
         <v>-0.0170776923076924</v>
       </c>
@@ -3301,27 +3318,27 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="H25" s="24" t="e">
+      <c r="H25" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
-      <c r="I25" s="24" t="e">
+      <c r="I25" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>0.460416666666667</v>
       </c>
       <c r="N25" s="2" t="e">
@@ -3332,8 +3349,9 @@
         <f>[1]summaryCPI!D25</f>
         <v>#REF!</v>
       </c>
-      <c r="P25" s="2">
-        <v>0.59937</v>
+      <c r="P25" s="2" t="e">
+        <f>[1]summaryCPI!C25</f>
+        <v>#REF!</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="13"/>
@@ -3351,20 +3369,19 @@
       <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="26">
-        <f t="array" ref="E26">GEOMEAN(ABS(E2:E25))</f>
-        <v>0.184549597318419</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="38">
-        <f t="array" ref="J26">GEOMEAN(ABS(J2:J25))</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="26">
-        <f t="array" ref="K26">GEOMEAN(ABS(K2:K25))</f>
+      <c r="E26" s="25">
+        <f t="array" ref="E26">GEOMEAN(ABS(E2:E24))</f>
+        <v>0.20467079709307</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="37">
+        <f t="array" ref="J26">GEOMEAN(ABS(J2:J24))</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="array" ref="K26">GEOMEAN(ABS(K2:K24))</f>
         <v>1</v>
       </c>
       <c r="L26"/>
@@ -3373,19 +3390,18 @@
       <c r="D27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <f t="array" ref="E27">GEOMEAN(ABS(E2:E11))</f>
         <v>0.142217606410036</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="39">
+      <c r="F27" s="20"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="38">
         <f t="array" ref="J27">GEOMEAN(ABS(J2:J11))</f>
         <v>1</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <f t="array" ref="K27">GEOMEAN(ABS(K2:K11))</f>
         <v>1</v>
       </c>
@@ -3395,42 +3411,40 @@
       <c r="D28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="28">
-        <f t="array" ref="E28">GEOMEAN(ABS(E12:E25))</f>
-        <v>0.22230103537132</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="39">
-        <f t="array" ref="J28">GEOMEAN(ABS(J12:J25))</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="28">
-        <f t="array" ref="K28">GEOMEAN(ABS(K12:K25))</f>
+      <c r="E28" s="27">
+        <f t="array" ref="E28">GEOMEAN(ABS(E12:E24))</f>
+        <v>0.270815302654283</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="38">
+        <f t="array" ref="J28">GEOMEAN(ABS(J12:J24))</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="array" ref="K28">GEOMEAN(ABS(K12:K24))</f>
         <v>1</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="28">
-        <f t="array" ref="E29">AVERAGE(ABS(E2:E25))</f>
-        <v>0.292483951415808</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="39">
-        <f t="array" ref="J29">AVERAGE(ABS(J2:J25))</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="28">
-        <f t="array" ref="K29">AVERAGE(ABS(K2:K25))</f>
+      <c r="E29" s="27">
+        <f t="array" ref="E29">AVERAGE(ABS(E2:E24))</f>
+        <v>0.304458136594422</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="38">
+        <f t="array" ref="J29">AVERAGE(ABS(J2:J24))</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="27">
+        <f t="array" ref="K29">AVERAGE(ABS(K2:K24))</f>
         <v>1</v>
       </c>
       <c r="L29"/>
@@ -3439,316 +3453,309 @@
       <c r="D30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <f t="array" ref="E30">AVERAGE(ABS(E2:E11))</f>
         <v>0.264676056202914</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="39">
+      <c r="F30" s="20"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="38">
         <f t="array" ref="J30">AVERAGE(ABS(J2:J11))</f>
         <v>1</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="27">
         <f t="array" ref="K30">AVERAGE(ABS(K2:K11))</f>
         <v>1</v>
       </c>
       <c r="L30"/>
     </row>
     <row r="31" ht="17.55" spans="4:12">
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="29">
-        <f t="array" ref="E31">AVERAGE(ABS(E12:E25))</f>
-        <v>0.312346733710733</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="40">
-        <f t="array" ref="J31">AVERAGE(ABS(J12:J25))</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="29">
-        <f t="array" ref="K31">AVERAGE(ABS(K12:K25))</f>
+      <c r="E31" s="28">
+        <f t="array" ref="E31">AVERAGE(ABS(E12:E24))</f>
+        <v>0.335059736895582</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="39">
+        <f t="array" ref="J31">AVERAGE(ABS(J12:J24))</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="28">
+        <f t="array" ref="K31">AVERAGE(ABS(K12:K24))</f>
         <v>1</v>
       </c>
       <c r="L31"/>
     </row>
     <row r="32" spans="6:12">
-      <c r="F32" s="27"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="F32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="3:12">
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="30">
-        <f t="array" ref="E33">GEOMEAN(1+ABS(Q2:Q25-R2:R25)/(R2:R25))-1</f>
-        <v>0.315975155537865</v>
-      </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="41" t="e">
-        <f t="array" ref="J33">GEOMEAN(1+ABS(O2:O25-P2:P25)/(P2:P25))-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" s="42" t="e">
-        <f t="array" ref="K33">GEOMEAN(1+ABS(N2:N25-R2:R25)/(R2:R25))-1</f>
+      <c r="E33" s="29">
+        <f t="array" ref="E33">GEOMEAN(1+ABS(Q2:Q24-R2:R24)/(R2:R24))-1</f>
+        <v>0.330782618609708</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="40" t="e">
+        <f t="array" ref="J33">GEOMEAN(1+ABS(O2:O24-P2:P24)/(P2:P24))-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K33" s="41" t="e">
+        <f t="array" ref="K33">GEOMEAN(1+ABS(N2:N24-R2:R24)/(R2:R24))-1</f>
         <v>#REF!</v>
       </c>
       <c r="L33"/>
     </row>
     <row r="34" spans="3:12">
-      <c r="C34" s="16"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <f t="array" ref="E34">GEOMEAN(1+ABS(Q2:Q11-R2:R11)/(R2:R11))-1</f>
         <v>0.231947110984238</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="43" t="e">
+      <c r="F34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="42" t="e">
         <f t="array" ref="J34">GEOMEAN(1+ABS(O2:O11-P2:P11)/(P2:P11))-1</f>
         <v>#REF!</v>
       </c>
-      <c r="K34" s="44" t="e">
+      <c r="K34" s="43" t="e">
         <f t="array" ref="K34">GEOMEAN(1+ABS(N2:N11-R2:R11)/(R2:R11))-1</f>
         <v>#REF!</v>
       </c>
       <c r="L34"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="18"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="32">
-        <f t="array" ref="E35">GEOMEAN(1+ABS(Q12:Q25-R12:R25)/(R12:R25))-1</f>
-        <v>0.379481863784545</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="45" t="e">
-        <f t="array" ref="J35">GEOMEAN(1+ABS(O12:O25-P12:P25)/(P12:P25))-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" s="46" t="e">
-        <f t="array" ref="K35">GEOMEAN(1+ABS(N12:N25-R12:R25)/(R12:R25))-1</f>
+      <c r="E35" s="31">
+        <f t="array" ref="E35">GEOMEAN(1+ABS(Q12:Q24-R12:R24)/(R12:R24))-1</f>
+        <v>0.41217309369508</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="44" t="e">
+        <f t="array" ref="J35">GEOMEAN(1+ABS(O12:O24-P12:P24)/(P12:P24))-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K35" s="45" t="e">
+        <f t="array" ref="K35">GEOMEAN(1+ABS(N12:N24-R12:R24)/(R12:R24))-1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="33">
-        <f t="array" ref="E36">AVERAGE(ABS(Q2:Q25-R2:R25))/AVERAGE(R2:R25)</f>
-        <v>0.34726045940567</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="14" t="e">
-        <f t="array" ref="J36">AVERAGE(ABS(O2:O25-P2:P25))/AVERAGE(P2:P25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" s="47" t="e">
-        <f t="array" ref="K36">AVERAGE(ABS(N2:N25-R2:R25))/AVERAGE(R2:R25)</f>
+      <c r="E36" s="32">
+        <f t="array" ref="E36">AVERAGE(ABS(Q2:Q24-R2:R24))/AVERAGE(R2:R24)</f>
+        <v>0.358938260512226</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="13" t="e">
+        <f t="array" ref="J36">AVERAGE(ABS(O2:O24-P2:P24))/AVERAGE(P2:P24)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K36" s="46" t="e">
+        <f t="array" ref="K36">AVERAGE(ABS(N2:N24-R2:R24))/AVERAGE(R2:R24)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="16"/>
-      <c r="D37" s="21" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="33">
         <f t="array" ref="E37">AVERAGE(ABS(Q2:Q11-R2:R11))/AVERAGE(R2:R11)</f>
         <v>0.221166241953315</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="16" t="e">
+      <c r="F37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="15" t="e">
         <f t="array" ref="J37">AVERAGE(ABS(O2:O11-P2:P11))/AVERAGE(P2:P11)</f>
         <v>#REF!</v>
       </c>
-      <c r="K37" s="48" t="e">
+      <c r="K37" s="47" t="e">
         <f t="array" ref="K37">AVERAGE(ABS(N2:N11-R2:R11))/AVERAGE(R2:R11)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="18"/>
-      <c r="D38" s="22" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="35">
-        <f t="array" ref="E38">AVERAGE(ABS(Q12:Q25-R12:R25))/AVERAGE(R12:R25)</f>
-        <v>0.431499626298951</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="18" t="e">
-        <f t="array" ref="J38">AVERAGE(ABS(O12:O25-P12:P25))/AVERAGE(P12:P25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K38" s="49" t="e">
-        <f t="array" ref="K38">AVERAGE(ABS(N12:N25-R12:R25))/AVERAGE(R12:R25)</f>
+      <c r="E38" s="34">
+        <f t="array" ref="E38">AVERAGE(ABS(Q12:Q24-R12:R24))/AVERAGE(R12:R24)</f>
+        <v>0.456545485863031</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="17" t="e">
+        <f t="array" ref="J38">AVERAGE(ABS(O12:O24-P12:P24))/AVERAGE(P12:P24)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K38" s="48" t="e">
+        <f t="array" ref="K38">AVERAGE(ABS(N12:N24-R12:R24))/AVERAGE(R12:R24)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="33">
-        <f t="array" ref="E39">(AVERAGE((Q2:Q25-R2:R25)^2)/AVERAGE((R2:R25)^2))^0.5</f>
-        <v>0.445006570402184</v>
-      </c>
-      <c r="F39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="14" t="e">
-        <f t="array" ref="J39">(AVERAGE((O2:O25-P2:P25)^2)/AVERAGE((P2:P25)^2))^0.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K39" s="47" t="e">
-        <f t="array" ref="K39">(AVERAGE((N2:N25-R2:R25)^2)/AVERAGE((R2:R25)^2))^0.5</f>
+      <c r="E39" s="32">
+        <f t="array" ref="E39">(AVERAGE((Q2:Q24-R2:R24)^2)/AVERAGE((R2:R24)^2))^0.5</f>
+        <v>0.450634549666886</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="13" t="e">
+        <f t="array" ref="J39">(AVERAGE((O2:O24-P2:P24)^2)/AVERAGE((P2:P24)^2))^0.5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K39" s="46" t="e">
+        <f t="array" ref="K39">(AVERAGE((N2:N24-R2:R24)^2)/AVERAGE((R2:R24)^2))^0.5</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="16"/>
-      <c r="D40" s="21" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="33">
         <f t="array" ref="E40">(AVERAGE((Q2:Q11-R2:R11)^2)/AVERAGE((R2:R11)^2))^0.5</f>
         <v>0.26676163250211</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="16" t="e">
+      <c r="F40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="15" t="e">
         <f t="array" ref="J40">(AVERAGE((O2:O11-P2:P11)^2)/AVERAGE((P2:P11)^2))^0.5</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="48" t="e">
+      <c r="K40" s="47" t="e">
         <f t="array" ref="K40">(AVERAGE((N2:N11-R2:R11)^2)/AVERAGE((R2:R11)^2))^0.5</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="18"/>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="35">
-        <f t="array" ref="E41">(AVERAGE((Q12:Q25-R12:R25)^2)/AVERAGE((R12:R25)^2))^0.5</f>
-        <v>0.523477031023408</v>
-      </c>
-      <c r="F41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="18" t="e">
-        <f t="array" ref="J41">(AVERAGE((O12:O25-P12:P25)^2)/AVERAGE((P12:P25)^2))^0.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K41" s="49" t="e">
-        <f t="array" ref="K41">(AVERAGE((N12:N25-R12:R25)^2)/AVERAGE((R12:R25)^2))^0.5</f>
+      <c r="E41" s="34">
+        <f t="array" ref="E41">(AVERAGE((Q12:Q24-R12:R24)^2)/AVERAGE((R12:R24)^2))^0.5</f>
+        <v>0.53419028085538</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="17" t="e">
+        <f t="array" ref="J41">(AVERAGE((O12:O24-P12:P24)^2)/AVERAGE((P12:P24)^2))^0.5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K41" s="48" t="e">
+        <f t="array" ref="K41">(AVERAGE((N12:N24-R12:R24)^2)/AVERAGE((R12:R24)^2))^0.5</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="33">
-        <f t="array" ref="E42">AVERAGE(ABS(Q2:Q25-R2:R25)/(R2:R25))</f>
-        <v>0.348394362956864</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="14" t="e">
-        <f t="array" ref="J42">AVERAGE(ABS(O2:O25-P2:P25)/(P2:P25))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K42" s="47" t="e">
-        <f t="array" ref="K42">AVERAGE(ABS(N2:N25-R2:R25)/(R2:R25))</f>
+      <c r="E42" s="32">
+        <f t="array" ref="E42">AVERAGE(ABS(Q2:Q24-R2:R24)/(R2:R24))</f>
+        <v>0.362786534951252</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="13" t="e">
+        <f t="array" ref="J42">AVERAGE(ABS(O2:O24-P2:P24)/(P2:P24))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K42" s="46" t="e">
+        <f t="array" ref="K42">AVERAGE(ABS(N2:N24-R2:R24)/(R2:R24))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="16"/>
-      <c r="D43" s="21" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="33">
         <f t="array" ref="E43">AVERAGE(ABS(Q2:Q11-R2:R11)/(R2:R11))</f>
         <v>0.254886723228489</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="16" t="e">
+      <c r="F43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="15" t="e">
         <f t="array" ref="J43">AVERAGE(ABS(O2:O11-P2:P11)/(P2:P11))</f>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="48" t="e">
+      <c r="K43" s="47" t="e">
         <f t="array" ref="K43">AVERAGE(ABS(N2:N11-R2:R11)/(R2:R11))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="18"/>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="35">
-        <f t="array" ref="E44">AVERAGE(ABS(Q12:Q25-R12:R25)/(R12:R25))</f>
-        <v>0.415185534191417</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="18" t="e">
-        <f t="array" ref="J44">AVERAGE(ABS(O12:O25-P12:P25)/(P12:P25))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K44" s="49" t="e">
-        <f t="array" ref="K44">AVERAGE(ABS(N12:N25-R12:R25)/(R12:R25))</f>
+      <c r="E44" s="34">
+        <f t="array" ref="E44">AVERAGE(ABS(Q12:Q24-R12:R24)/(R12:R24))</f>
+        <v>0.445786390122607</v>
+      </c>
+      <c r="F44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="17" t="e">
+        <f t="array" ref="J44">AVERAGE(ABS(O12:O24-P12:P24)/(P12:P24))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K44" s="48" t="e">
+        <f t="array" ref="K44">AVERAGE(ABS(N12:N24-R12:R24)/(R12:R24))</f>
         <v>#REF!</v>
       </c>
     </row>
